--- a/documentation/Pinout.xlsx
+++ b/documentation/Pinout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Pin</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>TRIG</t>
+  </si>
+  <si>
+    <t>ECHO</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,9 +643,7 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -655,9 +659,7 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -673,9 +675,7 @@
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -693,9 +693,7 @@
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -709,9 +707,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -727,9 +723,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -745,7 +739,9 @@
         <v>33</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -759,7 +755,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -773,7 +771,9 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -789,7 +789,9 @@
         <v>33</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -807,7 +809,9 @@
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -825,7 +829,9 @@
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -841,7 +847,9 @@
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -857,7 +865,9 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
